--- a/biology/Zoologie/Aromia/Aromia.xlsx
+++ b/biology/Zoologie/Aromia/Aromia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aromia est un genre d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèce rencontrée en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En Europe, ce genre ne comprend qu'une seule espèce :
 Aromia moschata (Linnaeus, 1758) - aromie musquée</t>
@@ -542,13 +556,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 mai 2021) :
 Aromia bungii (Faldermann, 1835)
 Aromia malayana Hayashi, 1977
 Aromia moschata (Linné, 1758)
-Selon NCBI  (26 août 2014)[2] :
+Selon NCBI  (26 août 2014) :
 Aromia bungii
 Aromia moschata</t>
         </is>
